--- a/1-session-Introduction to descriptive statistics_New - Editable.xlsx
+++ b/1-session-Introduction to descriptive statistics_New - Editable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22431410-D58C-4218-936F-3FE8C8AC389D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3376412-F863-4F33-A847-DD627128044E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar diagram Data" sheetId="2" r:id="rId1"/>
@@ -22,11 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bar diagram Data'!$A$1:$A$627</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Histogram!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Histogram!$A$1:$A$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -801,11 +801,21 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -815,6 +825,33 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -829,110 +866,126 @@
           <c:tx>
             <c:v>Frequency</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Histogram!$H$19:$H$29</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
+            <c:numRef>
+              <c:f>Histogram!$L$17:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>160.7639904</c:v>
+                  <c:v>165.16776370001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162.965877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165.1677637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>167.3696504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>169.571537</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>171.7734237</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>173.9753104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>176.1771971</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>178.3790837</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180.5809704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>176.17719706497155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$I$19:$I$29</c:f>
+              <c:f>Histogram!$M$17:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7D4-4990-A1C4-348921891522}"/>
+              <c16:uniqueId val="{00000001-080F-4944-B4C9-E821FA851042}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="641776728"/>
-        <c:axId val="641770496"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="574541464"/>
+        <c:axId val="574543104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641776728"/>
+        <c:axId val="574541464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,11 +994,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -955,12 +1018,72 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641770496"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574543104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,20 +1091,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641770496"/>
+        <c:axId val="574543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -991,19 +1138,107 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641776728"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574541464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1016,6 +1251,31 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5416,6 +5676,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5959,6 +6259,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6474,7 +7277,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6990,7 +7793,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7551,23 +8354,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D96B23-4FC3-4E83-B3DA-EFD5027CC2BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E6513F-9A71-48E7-89AC-E5D831FED054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9624,7 +10427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{823CEEAB-116C-40D8-93DD-CA5D4D6A968B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{823CEEAB-116C-40D8-93DD-CA5D4D6A968B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F5:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -13593,10 +14396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13604,7 +14408,7 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -13618,31 +14422,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>163.89456206699799</v>
+        <v>166.89456206699799</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2">
         <f>MAX(A2:A101)</f>
-        <v>181.6819137474522</v>
+        <v>176.58906174066942</v>
       </c>
       <c r="H2">
         <f>D3</f>
-        <v>159.66304701752961</v>
+        <v>164.06182036351399</v>
       </c>
       <c r="I2">
         <f>H2+D5</f>
-        <v>161.86493369052187</v>
+        <v>165.31454450122953</v>
       </c>
       <c r="J2">
         <f>AVERAGE(H2:I2)</f>
-        <v>160.76399035402574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164.68818243237178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176.00196017330745</v>
       </c>
@@ -13651,22 +14455,22 @@
       </c>
       <c r="D3">
         <f>MIN(A2:A101)</f>
-        <v>159.66304701752961</v>
+        <v>164.06182036351399</v>
       </c>
       <c r="H3">
         <f>I2</f>
-        <v>161.86493369052187</v>
+        <v>165.31454450122953</v>
       </c>
       <c r="I3">
         <f>H3+$D$5</f>
-        <v>164.06682036351413</v>
+        <v>166.56726863894508</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="0">AVERAGE(H3:I3)</f>
-        <v>162.965877027018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165.94090657008729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>171.47038008435629</v>
       </c>
@@ -13679,18 +14483,18 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H11" si="1">I3</f>
-        <v>164.06682036351413</v>
+        <v>166.56726863894508</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I11" si="2">H4+$D$5</f>
-        <v>166.26870703650638</v>
+        <v>167.81999277666063</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>165.16776370001025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167.19363070780287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>164.52210204253788</v>
       </c>
@@ -13699,161 +14503,173 @@
       </c>
       <c r="D5">
         <f>(D2-D3)/D4</f>
-        <v>2.2018866729922593</v>
+        <v>1.2527241377155434</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>166.26870703650638</v>
+        <v>167.81999277666063</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>168.47059370949864</v>
+        <v>169.07271691437617</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>167.36965037300251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>168.44635484551839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>179.25142558116931</v>
+        <v>172.251425581169</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6">
         <f>AVERAGE(A2:A101)</f>
-        <v>170.30169697940309</v>
+        <v>169.98169697940301</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>168.47059370949864</v>
+        <v>169.07271691437617</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>170.6724803824909</v>
+        <v>170.32544105209172</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>169.57153704599477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169.69907898323396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>164.06682036351413</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>170.6724803824909</v>
+        <v>170.32544105209172</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>172.87436705548316</v>
+        <v>171.57816518980727</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>171.77342371898703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170.95180312094948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>176.58906174066942</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>172.87436705548316</v>
+        <v>171.57816518980727</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>175.07625372847542</v>
+        <v>172.83088932752281</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>173.97531039197929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172.20452725866505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>170.99625481198018</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>175.07625372847542</v>
+        <v>172.83088932752281</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>177.27814040146768</v>
+        <v>174.08361346523836</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>176.17719706497155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>173.45725139638057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>170.20181687432299</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>177.27814040146768</v>
+        <v>174.08361346523836</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>179.48002707445994</v>
+        <v>175.3363376029539</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>178.37908373796381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174.70997553409615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>172.42393980443012</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>179.48002707445994</v>
+        <v>175.3363376029539</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>181.6819137474522</v>
+        <v>176.58906174066945</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>180.58097041095607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>175.96269967181166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>174.07570723837125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>164.62480673173559</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>169.0287051332416</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>170.01893454282254</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>164.06182036351399</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>169.21981270745164</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="13">
+        <v>160.76399035402574</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>171.94616518456314</v>
       </c>
@@ -13863,10 +14679,16 @@
       <c r="I18" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="13">
+        <v>162.965877027018</v>
+      </c>
+      <c r="M18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>177.56313056626823</v>
+        <v>173.563130566268</v>
       </c>
       <c r="H19" s="13">
         <v>160.76399035402574</v>
@@ -13874,8 +14696,14 @@
       <c r="I19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="13">
+        <v>165.16776370001</v>
+      </c>
+      <c r="M19" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>172.16343210013292</v>
       </c>
@@ -13885,8 +14713,14 @@
       <c r="I20" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="13">
+        <v>167.36965037300251</v>
+      </c>
+      <c r="M20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>164.1066903375031</v>
       </c>
@@ -13896,8 +14730,14 @@
       <c r="I21" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="13">
+        <v>169.57153704599477</v>
+      </c>
+      <c r="M21" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>170.99508383755165</v>
       </c>
@@ -13907,10 +14747,16 @@
       <c r="I22" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="13">
+        <v>171.77342371898703</v>
+      </c>
+      <c r="M22" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>160.90096025611274</v>
+        <v>166.900960256112</v>
       </c>
       <c r="H23" s="13">
         <v>169.57153704599477</v>
@@ -13918,10 +14764,16 @@
       <c r="I23" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="13">
+        <v>173.97531039197929</v>
+      </c>
+      <c r="M23" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>180.79279172699898</v>
+        <v>170.79279172699799</v>
       </c>
       <c r="H24" s="13">
         <v>171.77342371898703</v>
@@ -13929,8 +14781,14 @@
       <c r="I24" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="13">
+        <v>176.17719706497155</v>
+      </c>
+      <c r="M24" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>172.22703420149628</v>
       </c>
@@ -13940,8 +14798,14 @@
       <c r="I25" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="13">
+        <v>178.37908373796381</v>
+      </c>
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>164.21635266116937</v>
       </c>
@@ -13951,8 +14815,14 @@
       <c r="I26" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26" s="13">
+        <v>180.58097041095607</v>
+      </c>
+      <c r="M26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>175.02253669765196</v>
       </c>
@@ -13962,8 +14832,14 @@
       <c r="I27" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>172.65501967078308</v>
       </c>
@@ -13974,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>170.31940317057888</v>
       </c>
@@ -13985,369 +14861,376 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>178.68462848302443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172.684628483024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>168.01581793690275</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>168.38279336472624</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>173.91464709537104</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>170.83133500083932</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>177.05044840287883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>173.050448402879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>161.98398654698394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.983986546983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>170.13408225640887</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>167.82942268211627</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>174.25044390794937</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>172.7796090762422</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>172.21226059693436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>169.60581362756784</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>162.46795141516486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.467951415165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>167.95483631714887</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>159.66304701752961</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.66304701752901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>169.17292825557524</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>164.64791926584439</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>169.49598077364499</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>169.14732597972034</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>170.04303046807763</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174.99537691212026</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175.75165586269577</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>167.24179815530078</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>176.44681676931214</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>165.08835344386171</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>174.41921201854711</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>162.48930180328898</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.48930180328799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>167.5880996316846</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>167.08952600485645</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>173.2452021514473</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>169.95620783010963</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>166.72310195819591</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>168.30318415661168</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>170.85112219494476</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>180.45655153575353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>170.45655153575299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>168.11844872965594</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>169.06453922449145</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>174.96208940603537</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>164.49343022206449</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>167.24535655332147</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>168.19949607626768</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>171.59868136506702</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>165.21141944569536</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>181.6819137474522</v>
+        <v>171.681913747452</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>179.59698809310794</v>
+        <v>171.596988093107</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>177.26793132344028</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>171.26793132344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>171.69762870427803</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>173.21363131661201</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>165.68830162388622</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>171.11358531285077</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>162.77363258443074</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.773632584431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>166.20837343172752</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>159.82298166083638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.82298166083601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>174.92094613946392</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>164.4497290016443</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>174.86598992210929</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>172.51945948548382</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>173.3780906960601</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>168.00671162120125</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>173.71961732525961</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>174.56466295872815</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>166.6817370022909</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>180.24473021971062</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>170.24473021970999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>168.15207729625399</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>171.36962512442551</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>173.88406533602392</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>163.27829982576077</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166.278299825761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>170.60600768847507</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>171.49155994222383</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>169.41094301902922</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>168.39648694432981</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H19:H28">
-    <sortCondition ref="H19"/>
+  <autoFilter ref="A1:A101" xr:uid="{E54BBC5E-1D58-47B4-985A-827BB635FF93}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="greaterThan" val="177"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L17:L26">
+    <sortCondition ref="L17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -14357,10 +15240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8982B-1D20-4EAE-9F0A-B713F1A4F459}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14368,17 +15251,23 @@
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2.3960222014146244</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>163.89456206699799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2.4607946208060891</v>
       </c>
@@ -14386,15 +15275,21 @@
         <v>58</v>
       </c>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>176.00196017330745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>0.52842119411384625</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>171.47038008435629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2.5634955412178653</v>
       </c>
@@ -14404,8 +15299,15 @@
       <c r="G5" s="5">
         <v>2.0211932363240313</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>164.52210204253788</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S(I1:I101)</f>
+        <v>4.9492853052469012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5.6137553929736601</v>
       </c>
@@ -14415,8 +15317,11 @@
       <c r="G6" s="5">
         <v>6.7058031664488649E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>179.25142558116931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>7.565765174068277</v>
       </c>
@@ -14426,8 +15331,11 @@
       <c r="G7" s="5">
         <v>1.3338021084973657</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>164.06682036351413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2.6940027639550266</v>
       </c>
@@ -14437,8 +15345,11 @@
       <c r="G8" s="5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>176.58906174066942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1.7557184091010278</v>
       </c>
@@ -14448,8 +15359,11 @@
       <c r="G9" s="5">
         <v>2.1205611546747627</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>170.99625481198018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1.1848358848981859</v>
       </c>
@@ -14459,8 +15373,11 @@
       <c r="G10" s="5">
         <v>4.4967796107155626</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>170.20181687432299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.56558379634385636</v>
       </c>
@@ -14470,8 +15387,11 @@
       <c r="G11" s="5">
         <v>5.5198619786976248</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>172.42393980443012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>4.4985877859774028</v>
       </c>
@@ -14481,8 +15401,11 @@
       <c r="G12" s="5">
         <v>2.0527768228780396</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>174.07570723837125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2.8010181176952123</v>
       </c>
@@ -14492,8 +15415,11 @@
       <c r="G13" s="5">
         <v>15.829746018726004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>164.62480673173559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>4.174449084186951E-3</v>
       </c>
@@ -14503,8 +15429,11 @@
       <c r="G14" s="5">
         <v>2.0584363141130284E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>169.0287051332416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1.142332400941739</v>
       </c>
@@ -14514,8 +15443,11 @@
       <c r="G15" s="5">
         <v>15.829951862357415</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>170.01893454282254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.56958392169494465</v>
       </c>
@@ -14525,8 +15457,11 @@
       <c r="G16" s="5">
         <v>2021.1932363240314</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>164.06182036351399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>2.8491284780407118</v>
       </c>
@@ -14536,478 +15471,733 @@
       <c r="G17" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>169.21981270745164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>0.40167055467173313</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>171.94616518456314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1.0515269239700611</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>177.56313056626823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1.6440762389041996</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>172.16343210013292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>0.33965709998675575</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>164.1066903375031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2.1638738901546</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>170.99508383755165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>7.1310587285343292</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>160.90096025611274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>2.0874891337147251E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>180.79279172699898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.16812750036802504</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>172.22703420149628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.82197759334418274</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>164.21635266116937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.36334528615047068</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>175.02253669765196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>10.195606725906645</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>172.65501967078308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>0.9221632363940675</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>170.31940317057888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>6.4193970523426698</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>178.68462848302443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>3.647727931123967</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>168.01581793690275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1.0712013766768402</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>168.38279336472624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>0.66828387656567301</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>173.91464709537104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>0.63637003799874137</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>170.83133500083932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1.906451290919436</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>177.05044840287883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>2.2612000763276932</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>161.98398654698394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>0.88172927264344947</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>170.13408225640887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1.6977672830392585</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>167.82942268211627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>3.3750568967525649</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>174.25044390794937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1.2735654776416236</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>172.7796090762422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>0.82039629212298804</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>172.21226059693436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1.028905251483432</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>169.60581362756784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>0.62681131152897085</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>162.46795141516486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>0.25998798278238777</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>167.95483631714887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>0.69950921571511993</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>159.66304701752961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>2.8780242059782131</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>169.17292825557524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1.700435471285531</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>164.64791926584439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>0.1990795221903453</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>169.49598077364499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>0.23882849479652074</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>169.14732597972034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>1.5468373572269574</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>170.04303046807763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>2.6736347877177407</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>174.99537691212026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>1.7678173082967255</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>175.75165586269577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1.1455597000390521</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>167.24179815530078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>4.0200881914742101</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>176.44681676931214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>8.6797647522511401</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>165.08835344386171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>2.1137014150024607</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>174.41921201854711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>1.2058384064759204</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>162.48930180328898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>2.5981949071754542</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>167.5880996316846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>3.1747360178315409</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>167.08952600485645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>0.1876953337594989</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>173.2452021514473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1.5280400233264519</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>169.95620783010963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>1.430232406820261</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>166.72310195819591</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>2.2379386781904933</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>168.30318415661168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>1.4873601440633866</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>170.85112219494476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>5.1595234829212279E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>180.45655153575353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>0.97302995809489667</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>168.11844872965594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>4.3767244011341315</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>169.06453922449145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>0.16875447063576635</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>174.96208940603537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>2.0584363141130284E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>164.49343022206449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>0.47328792800353892</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>167.24535655332147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>3.877924915860921</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>168.19949607626768</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>4.5455677011210716</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>171.59868136506702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>3.2135865475796241</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>165.21141944569536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>0.12989369113245802</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>181.6819137474522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>0.10056177040095897</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>179.59698809310794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>0.28698929528952449</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>177.26793132344028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>8.0419290440422855E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>171.69762870427803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>6.8771268483270184E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>173.21363131661201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>1.175374955737835</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>165.68830162388622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>1.7519535720329529</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>171.11358531285077</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>0.76473634854973183</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>162.77363258443074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>0.7105251145799627</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>166.20837343172752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>0.42614810703765793</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>159.82298166083638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>1.2062375285520821</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>174.92094613946392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>2.7897458305937106</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>164.4497290016443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>2.2498050718526091E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>174.86598992210929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>1.2986146950454842</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>172.51945948548382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>1.9033752093881282</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>173.3780906960601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>1.2804389995120045</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>168.00671162120125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>1.3608734660350266</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>173.71961732525961</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>3.7966511378658629</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>174.56466295872815</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>7.9458581804465703E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>166.6817370022909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>3.4565976238212759</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>180.24473021971062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>5.2922981406844638</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>168.15207729625399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>1.7878089473133176</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>171.36962512442551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>1.2753882128276564</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>173.88406533602392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>1.7902752865744984</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>163.27829982576077</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>3.6597967074834337</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>170.60600768847507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>3.4708353019544971</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>171.49155994222383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>5.4903867874012233</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>169.41094301902922</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>2.7764683669022747</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>168.39648694432981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>2.4077295938038121</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>2.0280881429719044</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>0.16072268771889647</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>0.60745174445172745</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>2.6430978375349152</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>0.14893241933853205</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>0.46077598440553813</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>2.4710674054552073</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>0.85753764906102303</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>1.9484853006688798</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>2.3415277959984286</v>
       </c>
@@ -22038,8 +23228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
